--- a/intervention/history_auto.xlsx
+++ b/intervention/history_auto.xlsx
@@ -532,51 +532,51 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>L931101008038</t>
+          <t>H931252209056</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>H931100509009</t>
+          <t>L931101008038</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>C931252508049</t>
+          <t>H931100509009</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>A931383810034</t>
+          <t>C931252508049</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>M931100609016</t>
+          <t>A931383810034</t>
         </is>
       </c>
     </row>
@@ -602,31 +602,31 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>H931252710014</t>
+          <t>M931100609016</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>H931252209056</t>
+          <t>U931101008035</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>U931101008035</t>
+          <t>Q931325810006</t>
         </is>
       </c>
     </row>
@@ -652,31 +652,31 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>W931254310067</t>
+          <t>J888211710006</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>J888211710006</t>
+          <t>D931252109049</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>D931252109049</t>
+          <t>W931254310067</t>
         </is>
       </c>
     </row>
@@ -702,11 +702,11 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Q931325810006</t>
+          <t>H931252710014</t>
         </is>
       </c>
     </row>
